--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalastacenko/Documents/Natasha/QA/Git/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A814926-F6F9-7B41-8144-284CF133B43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5B1A61-FCFD-9547-BDCD-545594BA74DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="0" windowWidth="28240" windowHeight="17440" xr2:uid="{E0174797-F752-8546-81BD-1329228E660A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -68,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,17 +85,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -396,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8425E3-D80F-844D-B494-0FA820113072}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,22 +491,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{F8E9CC4E-70C3-D146-805C-494755D50AEE}">
+      <formula1>"Pass, Failed, Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>